--- a/Test/BagaAici/Catalog/SCR_repress_201909.xlsx
+++ b/Test/BagaAici/Catalog/SCR_repress_201909.xlsx
@@ -1,15 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Test\BagaAici\Catalog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78A933D1-E315-40AF-BEF3-1792688D3712}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="716">
   <si>
     <t>Art.No.</t>
   </si>
@@ -2165,31 +2177,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="18">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="@" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="172"/>
-    <numFmt formatCode="@" numFmtId="173"/>
-    <numFmt formatCode="@" numFmtId="174"/>
-    <numFmt formatCode="@" numFmtId="175"/>
-    <numFmt formatCode="@" numFmtId="176"/>
-    <numFmt formatCode="dd.mm.yyyy" numFmtId="177"/>
-    <numFmt formatCode="@" numFmtId="178"/>
-    <numFmt formatCode="@" numFmtId="179"/>
-    <numFmt formatCode="@" numFmtId="180"/>
-    <numFmt formatCode="@" numFmtId="181"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2197,7 +2193,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2219,5186 +2215,5486 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="174" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="175" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="177" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="178" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="179" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="181" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s" s="11">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s" s="13">
+      <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11">
         <v>39100</v>
       </c>
-      <c r="K2" t="s" s="16">
+      <c r="K2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s" s="19">
+      <c r="N2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11">
         <v>42802</v>
       </c>
-      <c r="K3" t="s" s="16">
+      <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s" s="19">
+      <c r="N3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s" s="12">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11">
         <v>39342</v>
       </c>
-      <c r="K4" t="s" s="16">
+      <c r="K4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s" s="19">
+      <c r="N4" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s" s="13">
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="11">
         <v>41210</v>
       </c>
-      <c r="K5" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s" s="19">
+      <c r="K5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s" s="13">
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I6" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s" s="19">
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s" s="13">
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="11">
         <v>42967</v>
       </c>
-      <c r="K7" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s" s="19">
+      <c r="K7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s" s="9">
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s" s="13">
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="11">
         <v>40256</v>
       </c>
-      <c r="K8" t="s" s="16">
+      <c r="K8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N8" t="s" s="19">
+      <c r="N8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="10">
+      <c r="E9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s" s="13">
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N9" t="s" s="19">
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="10">
+      <c r="E10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s" s="11">
+      <c r="F10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s" s="13">
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="11">
         <v>39491</v>
       </c>
-      <c r="K10" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s" s="19">
+      <c r="K10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="10">
+      <c r="E11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F11" t="s" s="11">
+      <c r="F11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s" s="13">
+      <c r="G11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s" s="19">
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s" s="10">
+      <c r="E12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F12" t="s" s="11">
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s" s="13">
+      <c r="G12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I12" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="11">
         <v>43040</v>
       </c>
-      <c r="K12" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s" s="19">
+      <c r="K12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s" s="10">
+      <c r="E13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F13" t="s" s="11">
+      <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s" s="13">
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I13" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="11">
         <v>41036</v>
       </c>
-      <c r="K13" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s" s="19">
+      <c r="K13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="E14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F14" t="s" s="11">
+      <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s" s="13">
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I14" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="11">
         <v>41067</v>
       </c>
-      <c r="K14" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s" s="19">
+      <c r="K14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s" s="10">
+      <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F15" t="s" s="11">
+      <c r="F15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G15" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s" s="13">
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I15" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="11">
         <v>41151</v>
       </c>
-      <c r="K15" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N15" t="s" s="19">
+      <c r="K15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="6">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D16" t="s" s="9">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s" s="10">
+      <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s" s="11">
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G16" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s" s="13">
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I16" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11">
         <v>43418</v>
       </c>
-      <c r="K16" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N16" t="s" s="19">
+      <c r="K16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s" s="10">
+      <c r="E17" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s" s="11">
+      <c r="F17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G17" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H17" t="s" s="13">
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I17" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="I17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="11">
         <v>41575</v>
       </c>
-      <c r="K17" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N17" t="s" s="19">
+      <c r="K17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s" s="9">
+      <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s" s="10">
+      <c r="E18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F18" t="s" s="11">
+      <c r="F18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G18" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s" s="13">
+      <c r="G18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I18" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="I18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="11">
         <v>41961</v>
       </c>
-      <c r="K18" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N18" t="s" s="19">
+      <c r="K18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E19" t="s" s="10">
+      <c r="E19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s" s="11">
+      <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s" s="13">
+      <c r="G19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="I19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="11">
         <v>42499</v>
       </c>
-      <c r="K19" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N19" t="s" s="19">
+      <c r="K19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s" s="10">
+      <c r="E20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F20" t="s" s="11">
+      <c r="F20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s" s="13">
+      <c r="G20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I20" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="I20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="11">
         <v>42019</v>
       </c>
-      <c r="K20" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N20" t="s" s="19">
+      <c r="K20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D21" t="s" s="9">
+      <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s" s="10">
+      <c r="E21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F21" t="s" s="11">
+      <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G21" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s" s="13">
+      <c r="G21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="I21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="11">
         <v>42347</v>
       </c>
-      <c r="K21" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s" s="19">
+      <c r="K21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D22" t="s" s="9">
+      <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s" s="10">
+      <c r="E22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F22" t="s" s="11">
+      <c r="F22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G22" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="13">
+      <c r="G22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I22" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="I22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="11">
         <v>42347</v>
       </c>
-      <c r="K22" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N22" t="s" s="19">
+      <c r="K22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="E23" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F23" t="s" s="11">
+      <c r="F23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G23" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s" s="13">
+      <c r="G23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I23" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="I23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11">
         <v>42347</v>
       </c>
-      <c r="K23" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N23" t="s" s="19">
+      <c r="K23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E24" t="s" s="10">
+      <c r="E24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F24" t="s" s="11">
+      <c r="F24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G24" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H24" t="s" s="13">
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I24" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="I24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="11">
         <v>42395</v>
       </c>
-      <c r="K24" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N24" t="s" s="19">
+      <c r="K24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s" s="10">
+      <c r="E25" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F25" t="s" s="11">
+      <c r="F25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G25" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H25" t="s" s="13">
+      <c r="G25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I25" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J25" s="15">
+      <c r="I25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="11">
         <v>42347</v>
       </c>
-      <c r="K25" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N25" t="s" s="19">
+      <c r="K25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s" s="10">
+      <c r="E26" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F26" t="s" s="11">
+      <c r="F26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G26" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="13">
+      <c r="G26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I26" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="I26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="11">
         <v>42967</v>
       </c>
-      <c r="K26" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N26" t="s" s="19">
+      <c r="K26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C27" t="s" s="8">
+      <c r="C27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D27" t="s" s="9">
+      <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E27" t="s" s="10">
+      <c r="E27" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F27" t="s" s="11">
+      <c r="F27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H27" t="s" s="13">
+      <c r="G27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I27" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="I27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="11">
         <v>42578</v>
       </c>
-      <c r="K27" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N27" t="s" s="19">
+      <c r="K27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E28" t="s" s="10">
+      <c r="E28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F28" t="s" s="11">
+      <c r="F28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G28" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s" s="13">
+      <c r="G28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I28" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="I28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="11">
         <v>42578</v>
       </c>
-      <c r="K28" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N28" t="s" s="19">
+      <c r="K28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="6">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="C29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E29" t="s" s="10">
+      <c r="E29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F29" t="s" s="11">
+      <c r="F29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G29" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s" s="13">
+      <c r="G29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I29" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="I29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="11">
         <v>42578</v>
       </c>
-      <c r="K29" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N29" t="s" s="19">
+      <c r="K29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D30" t="s" s="9">
+      <c r="D30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s" s="10">
+      <c r="E30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F30" t="s" s="11">
+      <c r="F30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G30" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H30" t="s" s="13">
+      <c r="G30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I30" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="I30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="11">
         <v>42690</v>
       </c>
-      <c r="K30" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N30" t="s" s="19">
+      <c r="K30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="C31" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D31" t="s" s="9">
+      <c r="D31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E31" t="s" s="10">
+      <c r="E31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F31" t="s" s="11">
+      <c r="F31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G31" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s" s="13">
+      <c r="G31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I31" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="I31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="11">
         <v>42117</v>
       </c>
-      <c r="K31" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N31" t="s" s="19">
+      <c r="K31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D32" t="s" s="9">
+      <c r="D32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E32" t="s" s="10">
+      <c r="E32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F32" t="s" s="11">
+      <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s" s="13">
+      <c r="G32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I32" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="I32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="11">
         <v>42269</v>
       </c>
-      <c r="K32" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N32" t="s" s="19">
+      <c r="K32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="6">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C33" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D33" t="s" s="9">
+      <c r="D33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s" s="10">
+      <c r="E33" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F33" t="s" s="11">
+      <c r="F33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H33" t="s" s="13">
+      <c r="G33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I33" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J33" s="15">
+      <c r="I33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="11">
         <v>42269</v>
       </c>
-      <c r="K33" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N33" t="s" s="19">
+      <c r="K33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D34" t="s" s="9">
+      <c r="D34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E34" t="s" s="10">
+      <c r="E34" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F34" t="s" s="11">
+      <c r="F34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G34" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H34" t="s" s="13">
+      <c r="G34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I34" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J34" s="15">
+      <c r="I34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="11">
         <v>42233</v>
       </c>
-      <c r="K34" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N34" t="s" s="19">
+      <c r="K34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="6">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D35" t="s" s="9">
+      <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s" s="10">
+      <c r="E35" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F35" t="s" s="11">
+      <c r="F35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G35" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s" s="13">
+      <c r="G35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I35" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J35" s="15">
+      <c r="I35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="11">
         <v>43040</v>
       </c>
-      <c r="K35" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N35" t="s" s="19">
+      <c r="K35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="6">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D36" t="s" s="9">
+      <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E36" t="s" s="10">
+      <c r="E36" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F36" t="s" s="11">
+      <c r="F36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G36" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H36" t="s" s="13">
+      <c r="G36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I36" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J36" s="15">
+      <c r="I36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="11">
         <v>42269</v>
       </c>
-      <c r="K36" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N36" t="s" s="19">
+      <c r="K36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s" s="6">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C37" t="s" s="8">
+      <c r="C37" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D37" t="s" s="9">
+      <c r="D37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="s" s="10">
+      <c r="E37" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F37" t="s" s="11">
+      <c r="F37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G37" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s" s="13">
+      <c r="G37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I37" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J37" s="15">
+      <c r="I37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="11">
         <v>42283</v>
       </c>
-      <c r="K37" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N37" t="s" s="19">
+      <c r="K37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="6">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C38" t="s" s="8">
+      <c r="C38" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D38" t="s" s="9">
+      <c r="D38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E38" t="s" s="10">
+      <c r="E38" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F38" t="s" s="11">
+      <c r="F38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G38" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="13">
+      <c r="G38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I38" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J38" s="15">
+      <c r="I38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="11">
         <v>42690</v>
       </c>
-      <c r="K38" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N38" t="s" s="19">
+      <c r="K38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="6">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C39" t="s" s="8">
+      <c r="C39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D39" t="s" s="9">
+      <c r="D39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E39" t="s" s="10">
+      <c r="E39" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F39" t="s" s="11">
+      <c r="F39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G39" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s" s="13">
+      <c r="G39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I39" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J39" s="15">
+      <c r="I39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="11">
         <v>42669</v>
       </c>
-      <c r="K39" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N39" t="s" s="19">
+      <c r="K39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s" s="6">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C40" t="s" s="8">
+      <c r="C40" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D40" t="s" s="9">
+      <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E40" t="s" s="10">
+      <c r="E40" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F40" t="s" s="11">
+      <c r="F40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G40" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s" s="13">
+      <c r="G40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I40" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J40" s="15">
+      <c r="I40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="11">
         <v>42816</v>
       </c>
-      <c r="K40" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N40" t="s" s="19">
+      <c r="K40" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="6">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C41" t="s" s="8">
+      <c r="C41" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D41" t="s" s="9">
+      <c r="D41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E41" t="s" s="10">
+      <c r="E41" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F41" t="s" s="11">
+      <c r="F41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G41" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s" s="13">
+      <c r="G41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I41" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J41" s="15">
+      <c r="I41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="11">
         <v>42669</v>
       </c>
-      <c r="K41" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N41" t="s" s="19">
+      <c r="K41" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="6">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C42" t="s" s="8">
+      <c r="C42" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D42" t="s" s="9">
+      <c r="D42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E42" t="s" s="10">
+      <c r="E42" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F42" t="s" s="11">
+      <c r="F42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G42" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H42" t="s" s="13">
+      <c r="G42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I42" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J42" s="15">
+      <c r="I42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="11">
         <v>42816</v>
       </c>
-      <c r="K42" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N42" t="s" s="19">
+      <c r="K42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s" s="6">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C43" t="s" s="8">
+      <c r="C43" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D43" t="s" s="9">
+      <c r="D43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E43" t="s" s="10">
+      <c r="E43" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F43" t="s" s="11">
+      <c r="F43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G43" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H43" t="s" s="13">
+      <c r="G43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I43" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J43" s="15">
+      <c r="I43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="11">
         <v>42690</v>
       </c>
-      <c r="K43" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N43" t="s" s="19">
+      <c r="K43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="6">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C44" t="s" s="8">
+      <c r="C44" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D44" t="s" s="9">
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E44" t="s" s="10">
+      <c r="E44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="F44" t="s" s="11">
+      <c r="F44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G44" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s" s="13">
+      <c r="G44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I44" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J44" s="15">
+      <c r="I44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="11">
         <v>42845</v>
       </c>
-      <c r="K44" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N44" t="s" s="19">
+      <c r="K44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s" s="6">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C45" t="s" s="8">
+      <c r="C45" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D45" t="s" s="9">
+      <c r="D45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E45" t="s" s="10">
+      <c r="E45" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F45" t="s" s="11">
+      <c r="F45" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G45" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s" s="13">
+      <c r="G45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I45" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J45" s="15">
+      <c r="I45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="11">
         <v>42816</v>
       </c>
-      <c r="K45" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N45" t="s" s="19">
+      <c r="K45" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="6">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C46" t="s" s="8">
+      <c r="C46" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D46" t="s" s="9">
+      <c r="D46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E46" t="s" s="10">
+      <c r="E46" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F46" t="s" s="11">
+      <c r="F46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G46" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H46" t="s" s="13">
+      <c r="G46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I46" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J46" s="15">
+      <c r="I46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="11">
         <v>42816</v>
       </c>
-      <c r="K46" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N46" t="s" s="19">
+      <c r="K46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="6">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C47" t="s" s="8">
+      <c r="C47" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D47" t="s" s="9">
+      <c r="D47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" t="s" s="10">
+      <c r="E47" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F47" t="s" s="11">
+      <c r="F47" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G47" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H47" t="s" s="13">
+      <c r="G47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I47" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J47" s="15">
+      <c r="I47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="11">
         <v>42760</v>
       </c>
-      <c r="K47" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N47" t="s" s="19">
+      <c r="K47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="6">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C48" t="s" s="8">
+      <c r="C48" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D48" t="s" s="9">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E48" t="s" s="10">
+      <c r="E48" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="F48" t="s" s="11">
+      <c r="F48" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G48" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H48" t="s" s="13">
+      <c r="G48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I48" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J48" s="15">
+      <c r="I48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="11">
         <v>43152</v>
       </c>
-      <c r="K48" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N48" t="s" s="19">
+      <c r="K48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="6">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C49" t="s" s="8">
+      <c r="C49" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D49" t="s" s="9">
+      <c r="D49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E49" t="s" s="10">
+      <c r="E49" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F49" t="s" s="11">
+      <c r="F49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G49" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H49" t="s" s="13">
+      <c r="G49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I49" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J49" s="15">
+      <c r="I49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="11">
         <v>43152</v>
       </c>
-      <c r="K49" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N49" t="s" s="19">
+      <c r="K49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="6">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C50" t="s" s="8">
+      <c r="C50" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D50" t="s" s="9">
+      <c r="D50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E50" t="s" s="10">
+      <c r="E50" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F50" t="s" s="11">
+      <c r="F50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G50" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H50" t="s" s="13">
+      <c r="G50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I50" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J50" s="15">
+      <c r="I50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="11">
         <v>43117</v>
       </c>
-      <c r="K50" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N50" t="s" s="19">
+      <c r="K50" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="6">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C51" t="s" s="8">
+      <c r="C51" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D51" t="s" s="9">
+      <c r="D51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E51" t="s" s="10">
+      <c r="E51" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F51" t="s" s="11">
+      <c r="F51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G51" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H51" t="s" s="13">
+      <c r="G51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I51" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J51" s="15">
+      <c r="I51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="11">
         <v>39930</v>
       </c>
-      <c r="K51" t="s" s="16">
+      <c r="K51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N51" t="s" s="19">
+      <c r="N51" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="6">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C52" t="s" s="8">
+      <c r="C52" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D52" t="s" s="9">
+      <c r="D52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E52" t="s" s="10">
+      <c r="E52" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F52" t="s" s="11">
+      <c r="F52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G52" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H52" t="s" s="13">
+      <c r="G52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I52" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J52" s="15">
+      <c r="I52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="11">
         <v>42347</v>
       </c>
-      <c r="K52" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N52" t="s" s="19">
+      <c r="K52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="6">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C53" t="s" s="8">
+      <c r="C53" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D53" t="s" s="9">
+      <c r="D53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E53" t="s" s="10">
+      <c r="E53" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F53" t="s" s="11">
+      <c r="F53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G53" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H53" t="s" s="13">
+      <c r="G53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I53" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="I53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="11">
         <v>41989</v>
       </c>
-      <c r="K53" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N53" t="s" s="19">
+      <c r="K53" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="6">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B54" t="s" s="7">
+      <c r="B54" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C54" t="s" s="8">
+      <c r="C54" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D54" t="s" s="9">
+      <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E54" t="s" s="10">
+      <c r="E54" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="F54" t="s" s="11">
+      <c r="F54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G54" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H54" t="s" s="13">
+      <c r="G54" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I54" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J54" s="15">
+      <c r="I54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="11">
         <v>43339</v>
       </c>
-      <c r="K54" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N54" t="s" s="19">
+      <c r="K54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="6">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B55" t="s" s="7">
+      <c r="B55" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C55" t="s" s="8">
+      <c r="C55" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D55" t="s" s="9">
+      <c r="D55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E55" t="s" s="10">
+      <c r="E55" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F55" t="s" s="11">
+      <c r="F55" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G55" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H55" t="s" s="13">
+      <c r="G55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I55" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J55" s="15">
+      <c r="I55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="11">
         <v>41619</v>
       </c>
-      <c r="K55" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N55" t="s" s="19">
+      <c r="K55" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="6">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B56" t="s" s="7">
+      <c r="B56" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C56" t="s" s="8">
+      <c r="C56" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D56" t="s" s="9">
+      <c r="D56" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E56" t="s" s="10">
+      <c r="E56" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F56" t="s" s="11">
+      <c r="F56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G56" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H56" t="s" s="13">
+      <c r="G56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I56" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J56" s="15">
+      <c r="I56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="11">
         <v>42412</v>
       </c>
-      <c r="K56" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N56" t="s" s="19">
+      <c r="K56" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N56" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="6">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B57" t="s" s="7">
+      <c r="B57" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C57" t="s" s="8">
+      <c r="C57" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D57" t="s" s="9">
+      <c r="D57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E57" t="s" s="10">
+      <c r="E57" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F57" t="s" s="11">
+      <c r="F57" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G57" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s" s="13">
+      <c r="G57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I57" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J57" s="15">
+      <c r="I57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="11">
         <v>43529</v>
       </c>
-      <c r="K57" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N57" t="s" s="19">
+      <c r="K57" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="6">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="B58" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C58" t="s" s="8">
+      <c r="C58" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D58" t="s" s="9">
+      <c r="D58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E58" t="s" s="10">
+      <c r="E58" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F58" t="s" s="11">
+      <c r="F58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G58" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H58" t="s" s="13">
+      <c r="G58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I58" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J58" s="15">
+      <c r="I58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="11">
         <v>43005</v>
       </c>
-      <c r="K58" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N58" t="s" s="19">
+      <c r="K58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N58" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="6">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B59" t="s" s="7">
+      <c r="B59" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C59" t="s" s="8">
+      <c r="C59" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D59" t="s" s="9">
+      <c r="D59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E59" t="s" s="10">
+      <c r="E59" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F59" t="s" s="11">
+      <c r="F59" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G59" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H59" t="s" s="13">
+      <c r="G59" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I59" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J59" s="15">
+      <c r="I59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="11">
         <v>42347</v>
       </c>
-      <c r="K59" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N59" t="s" s="19">
+      <c r="K59" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N59" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="6">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C60" t="s" s="8">
+      <c r="C60" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D60" t="s" s="9">
+      <c r="D60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E60" t="s" s="10">
+      <c r="E60" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="F60" t="s" s="11">
+      <c r="F60" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G60" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H60" t="s" s="13">
+      <c r="G60" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I60" t="s" s="14">
+      <c r="I60" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="11">
         <v>43687</v>
       </c>
-      <c r="K60" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N60" t="s" s="19">
+      <c r="K60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N60" s="13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="6">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C61" t="s" s="8">
+      <c r="C61" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D61" t="s" s="9">
+      <c r="D61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E61" t="s" s="10">
+      <c r="E61" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F61" t="s" s="11">
+      <c r="F61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G61" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s" s="13">
+      <c r="G61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I61" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J61" s="15">
+      <c r="I61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="11">
         <v>42816</v>
       </c>
-      <c r="K61" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N61" t="s" s="19">
+      <c r="K61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="6">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C62" t="s" s="8">
+      <c r="C62" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D62" t="s" s="9">
+      <c r="D62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E62" t="s" s="10">
+      <c r="E62" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F62" t="s" s="11">
+      <c r="F62" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G62" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s" s="13">
+      <c r="G62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I62" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J62" s="15">
+      <c r="I62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="11">
         <v>41961</v>
       </c>
-      <c r="K62" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N62" t="s" s="19">
+      <c r="K62" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N62" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="6">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C63" t="s" s="8">
+      <c r="C63" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D63" t="s" s="9">
+      <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E63" t="s" s="10">
+      <c r="E63" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F63" t="s" s="11">
+      <c r="F63" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G63" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s" s="13">
+      <c r="G63" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I63" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J63" s="15">
+      <c r="I63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="11">
         <v>42117</v>
       </c>
-      <c r="K63" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N63" t="s" s="19">
+      <c r="K63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N63" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="6">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C64" t="s" s="8">
+      <c r="C64" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D64" t="s" s="9">
+      <c r="D64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E64" t="s" s="10">
+      <c r="E64" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F64" t="s" s="11">
+      <c r="F64" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G64" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H64" t="s" s="13">
+      <c r="G64" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I64" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J64" s="15">
+      <c r="I64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="11">
         <v>43005</v>
       </c>
-      <c r="K64" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N64" t="s" s="19">
+      <c r="K64" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N64" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="6">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C65" t="s" s="8">
+      <c r="C65" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D65" t="s" s="9">
+      <c r="D65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E65" t="s" s="10">
+      <c r="E65" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F65" t="s" s="11">
+      <c r="F65" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G65" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s" s="13">
+      <c r="G65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I65" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J65" s="15">
+      <c r="I65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="11">
         <v>43488</v>
       </c>
-      <c r="K65" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N65" t="s" s="19">
+      <c r="K65" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" s="13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="6">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C66" t="s" s="8">
+      <c r="C66" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D66" t="s" s="9">
+      <c r="D66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66" t="s" s="10">
+      <c r="E66" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F66" t="s" s="11">
+      <c r="F66" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G66" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s" s="13">
+      <c r="G66" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I66" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J66" s="15">
+      <c r="I66" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="11">
         <v>43005</v>
       </c>
-      <c r="K66" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N66" t="s" s="19">
+      <c r="K66" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N66" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="6">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C67" t="s" s="8">
+      <c r="C67" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D67" t="s" s="9">
+      <c r="D67" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E67" t="s" s="10">
+      <c r="E67" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F67" t="s" s="11">
+      <c r="F67" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G67" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="13">
+      <c r="G67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I67" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J67" s="15">
+      <c r="I67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="11">
         <v>41619</v>
       </c>
-      <c r="K67" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N67" t="s" s="19">
+      <c r="K67" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="6">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B68" t="s" s="7">
+      <c r="B68" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C68" t="s" s="8">
+      <c r="C68" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D68" t="s" s="9">
+      <c r="D68" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E68" t="s" s="10">
+      <c r="E68" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F68" t="s" s="11">
+      <c r="F68" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G68" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="13">
+      <c r="G68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I68" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J68" s="15">
+      <c r="I68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="11">
         <v>42886</v>
       </c>
-      <c r="K68" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N68" t="s" s="19">
+      <c r="K68" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s" s="6">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C69" t="s" s="8">
+      <c r="C69" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D69" t="s" s="9">
+      <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E69" t="s" s="10">
+      <c r="E69" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F69" t="s" s="11">
+      <c r="F69" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G69" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="13">
+      <c r="G69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I69" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J69" s="15">
+      <c r="I69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="11">
         <v>42173</v>
       </c>
-      <c r="K69" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N69" t="s" s="19">
+      <c r="K69" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N69" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="6">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B70" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C70" t="s" s="8">
+      <c r="C70" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D70" t="s" s="9">
+      <c r="D70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E70" t="s" s="10">
+      <c r="E70" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="F70" t="s" s="11">
+      <c r="F70" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G70" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="13">
+      <c r="G70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I70" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J70" s="15">
+      <c r="I70" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="11">
         <v>43005</v>
       </c>
-      <c r="K70" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N70" t="s" s="19">
+      <c r="K70" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N70" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="6">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B71" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C71" t="s" s="8">
+      <c r="C71" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D71" t="s" s="9">
+      <c r="D71" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E71" t="s" s="10">
+      <c r="E71" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F71" t="s" s="11">
+      <c r="F71" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G71" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="13">
+      <c r="G71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I71" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J71" s="15">
+      <c r="I71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="11">
         <v>42331</v>
       </c>
-      <c r="K71" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N71" t="s" s="19">
+      <c r="K71" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="6">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C72" t="s" s="8">
+      <c r="C72" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D72" t="s" s="9">
+      <c r="D72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E72" t="s" s="10">
+      <c r="E72" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F72" t="s" s="11">
+      <c r="F72" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G72" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="13">
+      <c r="G72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I72" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J72" s="15">
+      <c r="I72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="11">
         <v>43529</v>
       </c>
-      <c r="K72" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N72" t="s" s="19">
+      <c r="K72" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="6">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C73" t="s" s="8">
+      <c r="C73" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D73" t="s" s="9">
+      <c r="D73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E73" t="s" s="10">
+      <c r="E73" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F73" t="s" s="11">
+      <c r="F73" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G73" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="13">
+      <c r="G73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I73" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J73" s="15">
+      <c r="I73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="11">
         <v>43488</v>
       </c>
-      <c r="K73" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N73" t="s" s="19">
+      <c r="K73" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N73" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="6">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C74" t="s" s="8">
+      <c r="C74" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D74" t="s" s="9">
+      <c r="D74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E74" t="s" s="10">
+      <c r="E74" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="F74" t="s" s="11">
+      <c r="F74" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G74" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="13">
+      <c r="G74" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I74" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J74" s="15">
+      <c r="I74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="11">
         <v>43559</v>
       </c>
-      <c r="K74" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N74" t="s" s="19">
+      <c r="K74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="6">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C75" t="s" s="8">
+      <c r="C75" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D75" t="s" s="9">
+      <c r="D75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E75" t="s" s="10">
+      <c r="E75" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="F75" t="s" s="11">
+      <c r="F75" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G75" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="13">
+      <c r="G75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I75" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J75" s="15">
+      <c r="I75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="11">
         <v>40169</v>
       </c>
-      <c r="K75" t="s" s="16">
+      <c r="K75" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N75" t="s" s="19">
+      <c r="N75" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="6">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B76" t="s" s="7">
+      <c r="B76" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C76" t="s" s="8">
+      <c r="C76" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D76" t="s" s="9">
+      <c r="D76" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E76" t="s" s="10">
+      <c r="E76" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="F76" t="s" s="11">
+      <c r="F76" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G76" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="13">
+      <c r="G76" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I76" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J76" s="15">
+      <c r="I76" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="11">
         <v>42331</v>
       </c>
-      <c r="K76" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N76" t="s" s="19">
+      <c r="K76" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="6">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C77" t="s" s="8">
+      <c r="C77" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D77" t="s" s="9">
+      <c r="D77" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E77" t="s" s="10">
+      <c r="E77" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F77" t="s" s="11">
+      <c r="F77" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G77" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="13">
+      <c r="G77" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I77" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J77" s="15">
+      <c r="I77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="11">
         <v>43383</v>
       </c>
-      <c r="K77" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N77" t="s" s="19">
+      <c r="K77" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N77" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="6">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B78" t="s" s="7">
+      <c r="B78" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C78" t="s" s="8">
+      <c r="C78" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D78" t="s" s="9">
+      <c r="D78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E78" t="s" s="10">
+      <c r="E78" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F78" t="s" s="11">
+      <c r="F78" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G78" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="13">
+      <c r="G78" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I78" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J78" s="15">
+      <c r="I78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="11">
         <v>41989</v>
       </c>
-      <c r="K78" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N78" t="s" s="19">
+      <c r="K78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="13" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="6">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C79" t="s" s="8">
+      <c r="C79" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D79" t="s" s="9">
+      <c r="D79" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E79" t="s" s="10">
+      <c r="E79" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F79" t="s" s="11">
+      <c r="F79" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G79" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="13">
+      <c r="G79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I79" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J79" s="15">
+      <c r="I79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="11">
         <v>42916</v>
       </c>
-      <c r="K79" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N79" t="s" s="19">
+      <c r="K79" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="6">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C80" t="s" s="8">
+      <c r="C80" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D80" t="s" s="9">
+      <c r="D80" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E80" t="s" s="10">
+      <c r="E80" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F80" t="s" s="11">
+      <c r="F80" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G80" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="13">
+      <c r="G80" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I80" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J80" s="15">
+      <c r="I80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="11">
         <v>41254</v>
       </c>
-      <c r="K80" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N80" t="s" s="19">
+      <c r="K80" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N80" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="6">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C81" t="s" s="8">
+      <c r="C81" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D81" t="s" s="9">
+      <c r="D81" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E81" t="s" s="10">
+      <c r="E81" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="F81" t="s" s="11">
+      <c r="F81" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G81" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="13">
+      <c r="G81" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="I81" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J81" s="15">
+      <c r="I81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="11">
         <v>43098</v>
       </c>
-      <c r="K81" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N81" t="s" s="19">
+      <c r="K81" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N81" s="13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="6">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C82" t="s" s="8">
+      <c r="C82" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D82" t="s" s="9">
+      <c r="D82" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E82" t="s" s="10">
+      <c r="E82" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="F82" t="s" s="11">
+      <c r="F82" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G82" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="13">
+      <c r="G82" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I82" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J82" s="15">
+      <c r="I82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="11">
         <v>43223</v>
       </c>
-      <c r="K82" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N82" t="s" s="19">
+      <c r="K82" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N82" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="6">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C83" t="s" s="8">
+      <c r="C83" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D83" t="s" s="9">
+      <c r="D83" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E83" t="s" s="10">
+      <c r="E83" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="F83" t="s" s="11">
+      <c r="F83" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G83" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="13">
+      <c r="G83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I83" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J83" s="15">
+      <c r="I83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="11">
         <v>41494</v>
       </c>
-      <c r="K83" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N83" t="s" s="19">
+      <c r="K83" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N83" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="6">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C84" t="s" s="8">
+      <c r="C84" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D84" t="s" s="9">
+      <c r="D84" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E84" t="s" s="10">
+      <c r="E84" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="F84" t="s" s="11">
+      <c r="F84" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G84" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="13">
+      <c r="G84" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I84" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J84" s="15">
+      <c r="I84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="11">
         <v>41669</v>
       </c>
-      <c r="K84" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N84" t="s" s="19">
+      <c r="K84" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="6">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B85" t="s" s="7">
+      <c r="B85" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C85" t="s" s="8">
+      <c r="C85" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D85" t="s" s="9">
+      <c r="D85" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E85" t="s" s="10">
+      <c r="E85" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="F85" t="s" s="11">
+      <c r="F85" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G85" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="13">
+      <c r="G85" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I85" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J85" s="15">
+      <c r="I85" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="11">
         <v>41669</v>
       </c>
-      <c r="K85" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N85" t="s" s="19">
+      <c r="K85" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N85" s="13" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="6">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C86" t="s" s="8">
+      <c r="C86" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D86" t="s" s="9">
+      <c r="D86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E86" t="s" s="10">
+      <c r="E86" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F86" t="s" s="11">
+      <c r="F86" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G86" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="13">
+      <c r="G86" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I86" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J86" s="15">
+      <c r="I86" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="11">
         <v>42045</v>
       </c>
-      <c r="K86" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N86" t="s" s="19">
+      <c r="K86" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N86" s="13" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s" s="6">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B87" t="s" s="7">
+      <c r="B87" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C87" t="s" s="8">
+      <c r="C87" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D87" t="s" s="9">
+      <c r="D87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E87" t="s" s="10">
+      <c r="E87" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F87" t="s" s="11">
+      <c r="F87" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G87" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="13">
+      <c r="G87" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I87" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J87" s="15">
+      <c r="I87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="11">
         <v>42045</v>
       </c>
-      <c r="K87" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N87" t="s" s="19">
+      <c r="K87" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N87" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="6">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C88" t="s" s="8">
+      <c r="C88" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D88" t="s" s="9">
+      <c r="D88" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E88" t="s" s="10">
+      <c r="E88" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="F88" t="s" s="11">
+      <c r="F88" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G88" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="13">
+      <c r="G88" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I88" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J88" s="15">
+      <c r="I88" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="11">
         <v>42816</v>
       </c>
-      <c r="K88" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N88" t="s" s="19">
+      <c r="K88" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N88" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="6">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B89" t="s" s="7">
+      <c r="B89" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C89" t="s" s="8">
+      <c r="C89" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D89" t="s" s="9">
+      <c r="D89" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E89" t="s" s="10">
+      <c r="E89" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F89" t="s" s="11">
+      <c r="F89" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G89" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="13">
+      <c r="G89" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I89" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J89" s="15">
+      <c r="I89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="11">
         <v>40899</v>
       </c>
-      <c r="K89" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N89" t="s" s="19">
+      <c r="K89" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N89" s="13" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="6">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B90" t="s" s="7">
+      <c r="B90" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C90" t="s" s="8">
+      <c r="C90" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D90" t="s" s="9">
+      <c r="D90" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E90" t="s" s="10">
+      <c r="E90" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F90" t="s" s="11">
+      <c r="F90" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G90" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="13">
+      <c r="G90" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H90" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I90" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J90" s="15">
+      <c r="I90" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="11">
         <v>42859</v>
       </c>
-      <c r="K90" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N90" t="s" s="19">
+      <c r="K90" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N90" s="13" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="6">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B91" t="s" s="7">
+      <c r="B91" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C91" t="s" s="8">
+      <c r="C91" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D91" t="s" s="9">
+      <c r="D91" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E91" t="s" s="10">
+      <c r="E91" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="F91" t="s" s="11">
+      <c r="F91" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G91" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="13">
+      <c r="G91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I91" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J91" s="15">
+      <c r="I91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="11">
         <v>41494</v>
       </c>
-      <c r="K91" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N91" t="s" s="19">
+      <c r="K91" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N91" s="13" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s" s="6">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B92" t="s" s="7">
+      <c r="B92" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C92" t="s" s="8">
+      <c r="C92" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D92" t="s" s="9">
+      <c r="D92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E92" t="s" s="10">
+      <c r="E92" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F92" t="s" s="11">
+      <c r="F92" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G92" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s" s="13">
+      <c r="G92" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I92" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J92" s="15">
+      <c r="I92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="11">
         <v>41669</v>
       </c>
-      <c r="K92" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N92" t="s" s="19">
+      <c r="K92" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N92" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s" s="6">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B93" t="s" s="7">
+      <c r="B93" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C93" t="s" s="8">
+      <c r="C93" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D93" t="s" s="9">
+      <c r="D93" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E93" t="s" s="10">
+      <c r="E93" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F93" t="s" s="11">
+      <c r="F93" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G93" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s" s="13">
+      <c r="G93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I93" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J93" s="15">
+      <c r="I93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="11">
         <v>42859</v>
       </c>
-      <c r="K93" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N93" t="s" s="19">
+      <c r="K93" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N93" s="13" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="6">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B94" t="s" s="7">
+      <c r="B94" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C94" t="s" s="8">
+      <c r="C94" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D94" t="s" s="9">
+      <c r="D94" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E94" t="s" s="10">
+      <c r="E94" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F94" t="s" s="11">
+      <c r="F94" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G94" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s" s="13">
+      <c r="G94" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I94" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J94" s="15">
+      <c r="I94" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="11">
         <v>41494</v>
       </c>
-      <c r="K94" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N94" t="s" s="19">
+      <c r="K94" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N94" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s" s="6">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B95" t="s" s="7">
+      <c r="B95" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C95" t="s" s="8">
+      <c r="C95" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D95" t="s" s="9">
+      <c r="D95" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E95" t="s" s="10">
+      <c r="E95" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F95" t="s" s="11">
+      <c r="F95" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G95" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s" s="13">
+      <c r="G95" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H95" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I95" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J95" s="15">
+      <c r="I95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="11">
         <v>40842</v>
       </c>
-      <c r="K95" t="s" s="16">
+      <c r="K95" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N95" t="s" s="19">
+      <c r="N95" s="13" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="6">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B96" t="s" s="7">
+      <c r="B96" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C96" t="s" s="8">
+      <c r="C96" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D96" t="s" s="9">
+      <c r="D96" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E96" t="s" s="10">
+      <c r="E96" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="F96" t="s" s="11">
+      <c r="F96" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G96" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s" s="13">
+      <c r="G96" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I96" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J96" s="15">
+      <c r="I96" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="11">
         <v>42690</v>
       </c>
-      <c r="K96" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N96" t="s" s="19">
+      <c r="K96" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N96" s="13" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="6">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B97" t="s" s="7">
+      <c r="B97" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C97" t="s" s="8">
+      <c r="C97" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="D97" t="s" s="9">
+      <c r="D97" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E97" t="s" s="10">
+      <c r="E97" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F97" t="s" s="11">
+      <c r="F97" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G97" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s" s="13">
+      <c r="G97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I97" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J97" s="15">
+      <c r="I97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" s="11">
         <v>43559</v>
       </c>
-      <c r="K97" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N97" t="s" s="19">
+      <c r="K97" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="13" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="6">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B98" t="s" s="7">
+      <c r="B98" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C98" t="s" s="8">
+      <c r="C98" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D98" t="s" s="9">
+      <c r="D98" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E98" t="s" s="10">
+      <c r="E98" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F98" t="s" s="11">
+      <c r="F98" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G98" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H98" t="s" s="13">
+      <c r="G98" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I98" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J98" s="15">
+      <c r="I98" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="11">
         <v>42916</v>
       </c>
-      <c r="K98" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N98" t="s" s="19">
+      <c r="K98" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N98" s="13" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="6">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B99" t="s" s="7">
+      <c r="B99" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C99" t="s" s="8">
+      <c r="C99" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D99" t="s" s="9">
+      <c r="D99" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E99" t="s" s="10">
+      <c r="E99" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F99" t="s" s="11">
+      <c r="F99" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G99" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s" s="13">
+      <c r="G99" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I99" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J99" s="15">
+      <c r="I99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="11">
         <v>41213</v>
       </c>
-      <c r="K99" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N99" t="s" s="19">
+      <c r="K99" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N99" s="13" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s" s="6">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B100" t="s" s="7">
+      <c r="B100" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C100" t="s" s="8">
+      <c r="C100" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D100" t="s" s="9">
+      <c r="D100" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E100" t="s" s="10">
+      <c r="E100" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="F100" t="s" s="11">
+      <c r="F100" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G100" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="13">
+      <c r="G100" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I100" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J100" s="15">
+      <c r="I100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="11">
         <v>41213</v>
       </c>
-      <c r="K100" t="s" s="16">
-        <v>44</v>
-      </c>
-      <c r="N100" t="s" s="19">
+      <c r="K100" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N100" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="s" s="6">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B101" t="s" s="7">
+      <c r="B101" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C101" t="s" s="8">
+      <c r="C101" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D101" t="s" s="9">
+      <c r="D101" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E101" t="s" s="10">
+      <c r="E101" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F101" t="s" s="11">
+      <c r="F101" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G101" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H101" t="s" s="13">
+      <c r="G101" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I101" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J101" s="15">
+      <c r="I101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="11">
         <v>40421</v>
       </c>
-      <c r="K101" t="s" s="16">
+      <c r="K101" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N101" t="s" s="19">
+      <c r="N101" s="13" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s" s="6">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B102" t="s" s="7">
+      <c r="B102" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C102" t="s" s="8">
+      <c r="C102" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D102" t="s" s="9">
+      <c r="D102" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E102" t="s" s="10">
+      <c r="E102" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F102" t="s" s="11">
+      <c r="F102" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G102" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H102" t="s" s="13">
+      <c r="G102" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I102" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J102" s="15">
+      <c r="I102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J102" s="11">
         <v>39588</v>
       </c>
-      <c r="K102" t="s" s="16">
+      <c r="K102" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N102" t="s" s="19">
+      <c r="N102" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="s" s="6">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B103" t="s" s="7">
+      <c r="B103" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C103" t="s" s="8">
+      <c r="C103" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="D103" t="s" s="9">
+      <c r="D103" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E103" t="s" s="10">
+      <c r="E103" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F103" t="s" s="11">
+      <c r="F103" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G103" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s" s="13">
+      <c r="G103" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I103" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J103" s="15">
+      <c r="I103" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="11">
         <v>39532</v>
       </c>
-      <c r="K103" t="s" s="16">
+      <c r="K103" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N103" t="s" s="19">
+      <c r="N103" s="13" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s" s="6">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B104" t="s" s="7">
+      <c r="B104" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C104" t="s" s="8">
+      <c r="C104" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D104" t="s" s="9">
+      <c r="D104" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E104" t="s" s="10">
+      <c r="E104" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F104" t="s" s="11">
+      <c r="F104" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G104" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s" s="13">
+      <c r="G104" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I104" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J104" s="15">
+      <c r="I104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104" s="11">
         <v>39638</v>
       </c>
-      <c r="K104" t="s" s="16">
+      <c r="K104" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N104" t="s" s="19">
+      <c r="N104" s="13" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s" s="6">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B105" t="s" s="7">
+      <c r="B105" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C105" t="s" s="8">
+      <c r="C105" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D105" t="s" s="9">
+      <c r="D105" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E105" t="s" s="10">
+      <c r="E105" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F105" t="s" s="11">
+      <c r="F105" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G105" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s" s="13">
+      <c r="G105" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H105" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I105" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J105" s="15">
+      <c r="I105" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J105" s="11">
         <v>40497</v>
       </c>
-      <c r="K105" t="s" s="16">
+      <c r="K105" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N105" t="s" s="19">
+      <c r="N105" s="13" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s" s="6">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B106" t="s" s="7">
+      <c r="B106" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C106" t="s" s="8">
+      <c r="C106" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D106" t="s" s="9">
+      <c r="D106" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E106" t="s" s="10">
+      <c r="E106" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F106" t="s" s="11">
+      <c r="F106" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G106" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="H106" t="s" s="13">
+      <c r="G106" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I106" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J106" s="15">
+      <c r="I106" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="11">
         <v>39850</v>
       </c>
-      <c r="K106" t="s" s="16">
+      <c r="K106" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N106" t="s" s="19">
+      <c r="N106" s="13" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s" s="6">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B107" t="s" s="7">
+      <c r="B107" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C107" t="s" s="8">
+      <c r="C107" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D107" t="s" s="9">
+      <c r="D107" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E107" t="s" s="10">
+      <c r="E107" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F107" t="s" s="11">
+      <c r="F107" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H107" t="s" s="13">
+      <c r="H107" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I107" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J107" s="15">
+      <c r="I107" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="11">
         <v>38643</v>
       </c>
-      <c r="K107" t="s" s="16">
+      <c r="K107" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N107" t="s" s="19">
+      <c r="N107" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="s" s="6">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B108" t="s" s="7">
+      <c r="B108" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C108" t="s" s="8">
+      <c r="C108" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="D108" t="s" s="9">
+      <c r="D108" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E108" t="s" s="10">
+      <c r="E108" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="F108" t="s" s="11">
+      <c r="F108" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H108" t="s" s="13">
+      <c r="H108" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I108" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J108" s="15">
+      <c r="I108" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J108" s="11">
         <v>40491</v>
       </c>
-      <c r="K108" t="s" s="16">
+      <c r="K108" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N108" t="s" s="19">
+      <c r="N108" s="13" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="s" s="6">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B109" t="s" s="7">
+      <c r="B109" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C109" t="s" s="8">
+      <c r="C109" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D109" t="s" s="9">
+      <c r="D109" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E109" t="s" s="10">
+      <c r="E109" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="F109" t="s" s="11">
+      <c r="F109" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H109" t="s" s="13">
+      <c r="H109" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I109" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J109" s="15">
+      <c r="I109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" s="11">
         <v>42146</v>
       </c>
-      <c r="K109" t="s" s="16">
+      <c r="K109" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N109" t="s" s="19">
+      <c r="N109" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="s" s="6">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B110" t="s" s="7">
+      <c r="B110" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C110" t="s" s="8">
+      <c r="C110" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D110" t="s" s="9">
+      <c r="D110" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E110" t="s" s="10">
+      <c r="E110" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="F110" t="s" s="11">
+      <c r="F110" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H110" t="s" s="13">
+      <c r="H110" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="I110" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J110" s="15">
+      <c r="I110" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110" s="11">
         <v>38219</v>
       </c>
-      <c r="K110" t="s" s="16">
+      <c r="K110" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N110" t="s" s="19">
+      <c r="N110" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="s" s="6">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B111" t="s" s="7">
+      <c r="B111" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C111" t="s" s="8">
+      <c r="C111" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D111" t="s" s="9">
+      <c r="D111" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E111" t="s" s="10">
+      <c r="E111" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="F111" t="s" s="11">
+      <c r="F111" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H111" t="s" s="13">
+      <c r="H111" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I111" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J111" s="15">
+      <c r="I111" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J111" s="11">
         <v>42821</v>
       </c>
-      <c r="K111" t="s" s="16">
+      <c r="K111" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N111" t="s" s="19">
+      <c r="N111" s="13" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="s" s="6">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B112" t="s" s="7">
+      <c r="B112" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C112" t="s" s="8">
+      <c r="C112" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D112" t="s" s="9">
+      <c r="D112" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E112" t="s" s="10">
+      <c r="E112" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F112" t="s" s="11">
+      <c r="F112" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H112" t="s" s="13">
+      <c r="H112" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I112" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J112" s="15">
+      <c r="I112" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="11">
         <v>39861</v>
       </c>
-      <c r="K112" t="s" s="16">
+      <c r="K112" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N112" t="s" s="19">
+      <c r="N112" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="s" s="6">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B113" t="s" s="7">
+      <c r="B113" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C113" t="s" s="8">
+      <c r="C113" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="D113" t="s" s="9">
+      <c r="D113" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E113" t="s" s="10">
+      <c r="E113" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="F113" t="s" s="11">
+      <c r="F113" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H113" t="s" s="13">
+      <c r="H113" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="I113" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J113" s="15">
+      <c r="I113" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J113" s="11">
         <v>42177</v>
       </c>
-      <c r="K113" t="s" s="16">
+      <c r="K113" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N113" t="s" s="19">
+      <c r="N113" s="13" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s" s="6">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B114" t="s" s="7">
+      <c r="B114" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C114" t="s" s="8">
+      <c r="C114" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="D114" t="s" s="9">
+      <c r="D114" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E114" t="s" s="10">
+      <c r="E114" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="F114" t="s" s="11">
+      <c r="F114" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H114" t="s" s="13">
+      <c r="H114" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I114" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J114" s="15">
+      <c r="I114" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J114" s="11">
         <v>43585</v>
       </c>
-      <c r="K114" t="s" s="16">
+      <c r="K114" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N114" t="s" s="19">
+      <c r="N114" s="13" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="s" s="6">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B115" t="s" s="7">
+      <c r="B115" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C115" t="s" s="8">
+      <c r="C115" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D115" t="s" s="9">
+      <c r="D115" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E115" t="s" s="10">
+      <c r="E115" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F115" t="s" s="11">
+      <c r="F115" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H115" t="s" s="13">
+      <c r="H115" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I115" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J115" s="15">
+      <c r="I115" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="11">
         <v>39944</v>
       </c>
-      <c r="K115" t="s" s="16">
+      <c r="K115" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N115" t="s" s="19">
+      <c r="N115" s="13" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="s" s="6">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B116" t="s" s="7">
+      <c r="B116" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C116" t="s" s="8">
+      <c r="C116" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D116" t="s" s="9">
+      <c r="D116" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E116" t="s" s="10">
+      <c r="E116" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F116" t="s" s="11">
+      <c r="F116" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H116" t="s" s="13">
+      <c r="H116" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I116" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J116" s="15">
+      <c r="I116" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="11">
         <v>41922</v>
       </c>
-      <c r="K116" t="s" s="16">
+      <c r="K116" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N116" t="s" s="19">
+      <c r="N116" s="13" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="s" s="6">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B117" t="s" s="7">
+      <c r="B117" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C117" t="s" s="8">
+      <c r="C117" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="D117" t="s" s="9">
+      <c r="D117" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E117" t="s" s="10">
+      <c r="E117" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F117" t="s" s="11">
+      <c r="F117" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H117" t="s" s="13">
+      <c r="H117" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I117" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J117" s="15">
+      <c r="I117" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J117" s="11">
         <v>42128</v>
       </c>
-      <c r="K117" t="s" s="16">
+      <c r="K117" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N117" t="s" s="19">
+      <c r="N117" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="s" s="6">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B118" t="s" s="7">
+      <c r="B118" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C118" t="s" s="8">
+      <c r="C118" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D118" t="s" s="9">
+      <c r="D118" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E118" t="s" s="10">
+      <c r="E118" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="F118" t="s" s="11">
+      <c r="F118" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H118" t="s" s="13">
+      <c r="H118" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I118" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J118" s="15">
+      <c r="I118" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="11">
         <v>41772</v>
       </c>
-      <c r="K118" t="s" s="16">
+      <c r="K118" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N118" t="s" s="19">
+      <c r="N118" s="13" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="s" s="6">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B119" t="s" s="7">
+      <c r="B119" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C119" t="s" s="8">
+      <c r="C119" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D119" t="s" s="9">
+      <c r="D119" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E119" t="s" s="10">
+      <c r="E119" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F119" t="s" s="11">
+      <c r="F119" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H119" t="s" s="13">
+      <c r="H119" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I119" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J119" s="15">
+      <c r="I119" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="11">
         <v>41330</v>
       </c>
-      <c r="K119" t="s" s="16">
+      <c r="K119" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N119" t="s" s="19">
+      <c r="N119" s="13" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="s" s="6">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B120" t="s" s="7">
+      <c r="B120" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C120" t="s" s="8">
+      <c r="C120" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D120" t="s" s="9">
+      <c r="D120" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E120" t="s" s="10">
+      <c r="E120" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F120" t="s" s="11">
+      <c r="F120" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H120" t="s" s="13">
+      <c r="H120" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I120" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J120" s="15">
+      <c r="I120" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="11">
         <v>38883</v>
       </c>
-      <c r="K120" t="s" s="16">
+      <c r="K120" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N120" t="s" s="19">
+      <c r="N120" s="13" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="s" s="6">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B121" t="s" s="7">
+      <c r="B121" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C121" t="s" s="8">
+      <c r="C121" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="D121" t="s" s="9">
+      <c r="D121" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E121" t="s" s="10">
+      <c r="E121" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="F121" t="s" s="11">
+      <c r="F121" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H121" t="s" s="13">
+      <c r="H121" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I121" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J121" s="15">
+      <c r="I121" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="11">
         <v>40309</v>
       </c>
-      <c r="K121" t="s" s="16">
+      <c r="K121" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N121" t="s" s="19">
+      <c r="N121" s="13" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="s" s="6">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B122" t="s" s="7">
+      <c r="B122" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C122" t="s" s="8">
+      <c r="C122" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D122" t="s" s="9">
+      <c r="D122" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E122" t="s" s="10">
+      <c r="E122" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="F122" t="s" s="11">
+      <c r="F122" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H122" t="s" s="13">
+      <c r="H122" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I122" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J122" s="15">
+      <c r="I122" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="11">
         <v>39651</v>
       </c>
-      <c r="K122" t="s" s="16">
+      <c r="K122" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N122" t="s" s="19">
+      <c r="N122" s="13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="s" s="6">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B123" t="s" s="7">
+      <c r="B123" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C123" t="s" s="8">
+      <c r="C123" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D123" t="s" s="9">
+      <c r="D123" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E123" t="s" s="10">
+      <c r="E123" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="F123" t="s" s="11">
+      <c r="F123" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H123" t="s" s="13">
+      <c r="H123" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I123" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J123" s="15">
+      <c r="I123" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="11">
         <v>40708</v>
       </c>
-      <c r="K123" t="s" s="16">
+      <c r="K123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N123" t="s" s="19">
+      <c r="N123" s="13" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="s" s="6">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B124" t="s" s="7">
+      <c r="B124" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C124" t="s" s="8">
+      <c r="C124" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="D124" t="s" s="9">
+      <c r="D124" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E124" t="s" s="10">
+      <c r="E124" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F124" t="s" s="11">
+      <c r="F124" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H124" t="s" s="13">
+      <c r="H124" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I124" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J124" s="15">
+      <c r="I124" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="11">
         <v>43537</v>
       </c>
-      <c r="K124" t="s" s="16">
+      <c r="K124" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N124" t="s" s="19">
+      <c r="N124" s="13" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s" s="6">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B125" t="s" s="7">
+      <c r="B125" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C125" t="s" s="8">
+      <c r="C125" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D125" t="s" s="9">
+      <c r="D125" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E125" t="s" s="10">
+      <c r="E125" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="F125" t="s" s="11">
+      <c r="F125" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H125" t="s" s="13">
+      <c r="H125" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="I125" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J125" s="15">
+      <c r="I125" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="11">
         <v>41123</v>
       </c>
-      <c r="K125" t="s" s="16">
+      <c r="K125" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N125" t="s" s="19">
+      <c r="N125" s="13" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s" s="6">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B126" t="s" s="7">
+      <c r="B126" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C126" t="s" s="8">
+      <c r="C126" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D126" t="s" s="9">
+      <c r="D126" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E126" t="s" s="10">
+      <c r="E126" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="F126" t="s" s="11">
+      <c r="F126" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H126" t="s" s="13">
+      <c r="H126" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I126" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J126" s="15">
+      <c r="I126" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="11">
         <v>38856</v>
       </c>
-      <c r="K126" t="s" s="16">
+      <c r="K126" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N126" t="s" s="19">
+      <c r="N126" s="13" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="s" s="6">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B127" t="s" s="7">
+      <c r="B127" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C127" t="s" s="8">
+      <c r="C127" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D127" t="s" s="9">
+      <c r="D127" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E127" t="s" s="10">
+      <c r="E127" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="F127" t="s" s="11">
+      <c r="F127" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H127" t="s" s="13">
+      <c r="H127" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I127" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J127" s="15">
+      <c r="I127" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="11">
         <v>41283</v>
       </c>
-      <c r="K127" t="s" s="16">
+      <c r="K127" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N127" t="s" s="19">
+      <c r="N127" s="13" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="s" s="6">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B128" t="s" s="7">
+      <c r="B128" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C128" t="s" s="8">
+      <c r="C128" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D128" t="s" s="9">
+      <c r="D128" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E128" t="s" s="10">
+      <c r="E128" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="F128" t="s" s="11">
+      <c r="F128" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H128" t="s" s="13">
+      <c r="H128" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I128" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J128" s="15">
+      <c r="I128" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="11">
         <v>41995</v>
       </c>
-      <c r="K128" t="s" s="16">
+      <c r="K128" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N128" t="s" s="19">
+      <c r="N128" s="13" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="s" s="6">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="B129" t="s" s="7">
+      <c r="B129" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C129" t="s" s="8">
+      <c r="C129" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="D129" t="s" s="9">
+      <c r="D129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E129" t="s" s="10">
+      <c r="E129" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="F129" t="s" s="11">
+      <c r="F129" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H129" t="s" s="13">
+      <c r="H129" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I129" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J129" s="15">
+      <c r="I129" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J129" s="11">
         <v>42326</v>
       </c>
-      <c r="K129" t="s" s="16">
+      <c r="K129" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N129" t="s" s="19">
+      <c r="N129" s="13" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="s" s="6">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B130" t="s" s="7">
+      <c r="B130" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C130" t="s" s="8">
+      <c r="C130" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D130" t="s" s="9">
+      <c r="D130" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E130" t="s" s="10">
+      <c r="E130" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="F130" t="s" s="11">
+      <c r="F130" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H130" t="s" s="13">
+      <c r="H130" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I130" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J130" s="15">
+      <c r="I130" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="11">
         <v>40288</v>
       </c>
-      <c r="K130" t="s" s="16">
+      <c r="K130" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N130" t="s" s="19">
+      <c r="N130" s="13" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s" s="6">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B131" t="s" s="7">
+      <c r="B131" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C131" t="s" s="8">
+      <c r="C131" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="D131" t="s" s="9">
+      <c r="D131" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E131" t="s" s="10">
+      <c r="E131" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="F131" t="s" s="11">
+      <c r="F131" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H131" t="s" s="13">
+      <c r="H131" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="I131" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J131" s="15">
+      <c r="I131" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J131" s="11">
         <v>39938</v>
       </c>
-      <c r="K131" t="s" s="16">
+      <c r="K131" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N131" t="s" s="19">
+      <c r="N131" s="13" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="s" s="6">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B132" t="s" s="7">
+      <c r="B132" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C132" t="s" s="8">
+      <c r="C132" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D132" t="s" s="9">
+      <c r="D132" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E132" t="s" s="10">
+      <c r="E132" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F132" t="s" s="11">
+      <c r="F132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="H132" t="s" s="13">
+      <c r="H132" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="I132" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J132" s="15">
+      <c r="I132" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J132" s="11">
         <v>41439</v>
       </c>
-      <c r="K132" t="s" s="16">
+      <c r="K132" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N132" t="s" s="19">
+      <c r="N132" s="13" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="s" s="6">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B133" t="s" s="7">
+      <c r="B133" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C133" t="s" s="8">
+      <c r="C133" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D133" t="s" s="9">
+      <c r="D133" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E133" t="s" s="10">
+      <c r="E133" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="F133" t="s" s="11">
+      <c r="F133" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="H133" t="s" s="13">
+      <c r="H133" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="I133" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J133" s="15">
+      <c r="I133" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J133" s="11">
         <v>41995</v>
       </c>
-      <c r="K133" t="s" s="16">
+      <c r="K133" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N133" t="s" s="19">
+      <c r="N133" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="s" s="6">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B134" t="s" s="7">
+      <c r="B134" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="C134" t="s" s="8">
+      <c r="C134" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D134" t="s" s="9">
+      <c r="D134" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E134" t="s" s="10">
+      <c r="E134" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="F134" t="s" s="11">
+      <c r="F134" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="H134" t="s" s="13">
+      <c r="H134" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="I134" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J134" s="15">
+      <c r="I134" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J134" s="11">
         <v>41995</v>
       </c>
-      <c r="K134" t="s" s="16">
+      <c r="K134" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N134" t="s" s="19">
+      <c r="N134" s="13" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="s" s="6">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B135" t="s" s="7">
+      <c r="B135" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C135" t="s" s="8">
+      <c r="C135" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="D135" t="s" s="9">
+      <c r="D135" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E135" t="s" s="10">
+      <c r="E135" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F135" t="s" s="11">
+      <c r="F135" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="H135" t="s" s="13">
+      <c r="H135" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="I135" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="J135" s="15">
+      <c r="I135" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="11">
         <v>43585</v>
       </c>
-      <c r="K135" t="s" s="16">
+      <c r="K135" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N135" t="s" s="19">
+      <c r="N135" s="13" t="s">
         <v>715</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>